--- a/MANGUINAO, NIÑA FERMA.xlsx
+++ b/MANGUINAO, NIÑA FERMA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60FEBE4-44CE-4788-9230-837A08CE350F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>PERIOD</t>
   </si>
@@ -186,12 +187,21 @@
   </si>
   <si>
     <t>MANGUINAO, NIÑA FERMA</t>
+  </si>
+  <si>
+    <t>NURSE</t>
+  </si>
+  <si>
+    <t>ONT</t>
+  </si>
+  <si>
+    <t>2/26-28/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -854,25 +864,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K64" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K64" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1179,32 +1189,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1225,11 +1235,13 @@
       <c r="J2" s="48"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="47" t="s">
+        <v>51</v>
+      </c>
       <c r="C3" s="47"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
@@ -1245,7 +1257,7 @@
       <c r="J3" s="50"/>
       <c r="K3" s="51"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1256,7 +1268,9 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="48"/>
+      <c r="F4" s="48" t="s">
+        <v>52</v>
+      </c>
       <c r="G4" s="48"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
@@ -1265,7 +1279,7 @@
       <c r="J4" s="48"/>
       <c r="K4" s="49"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1273,7 +1287,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1286,7 +1300,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="46" t="s">
@@ -1303,7 +1317,7 @@
       <c r="J7" s="46"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1347,7 +1361,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>3.75</v>
+        <v>6.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1357,12 +1371,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>34</v>
       </c>
@@ -1384,7 +1398,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>44743</v>
       </c>
@@ -1404,7 +1418,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <f>EDATE(A11,1)</f>
         <v>44774</v>
@@ -1425,7 +1439,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <f>EDATE(A12,1)</f>
         <v>44805</v>
@@ -1450,7 +1464,7 @@
         <v>44827</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="12"/>
       <c r="C14" s="14">
@@ -1468,7 +1482,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>44835</v>
       </c>
@@ -1494,7 +1508,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>44866</v>
       </c>
@@ -1520,7 +1534,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="12" t="s">
         <v>48</v>
@@ -1542,7 +1556,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>44896</v>
       </c>
@@ -1562,7 +1576,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>47</v>
       </c>
@@ -1580,7 +1594,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <v>44927</v>
       </c>
@@ -1600,40 +1614,56 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
+        <v>44958</v>
+      </c>
       <c r="B21" s="12"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G21" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="9"/>
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="14"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
+        <v>44986</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H22" s="12"/>
+      <c r="G22" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H22" s="12">
+        <v>3</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+      <c r="K22" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="24">
+        <v>45017</v>
+      </c>
       <c r="B23" s="12"/>
       <c r="C23" s="14"/>
       <c r="D23" s="12"/>
@@ -1648,8 +1678,10 @@
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
+        <v>45047</v>
+      </c>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
       <c r="D24" s="13"/>
@@ -1664,8 +1696,10 @@
       <c r="J24" s="13"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
+        <v>45078</v>
+      </c>
       <c r="B25" s="12"/>
       <c r="C25" s="14"/>
       <c r="D25" s="12"/>
@@ -1680,8 +1714,10 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="24">
+        <v>45108</v>
+      </c>
       <c r="B26" s="12"/>
       <c r="C26" s="14"/>
       <c r="D26" s="12"/>
@@ -1696,8 +1732,10 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
+        <v>45139</v>
+      </c>
       <c r="B27" s="12"/>
       <c r="C27" s="14"/>
       <c r="D27" s="12"/>
@@ -1712,8 +1750,10 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="24">
+        <v>45170</v>
+      </c>
       <c r="B28" s="12"/>
       <c r="C28" s="14"/>
       <c r="D28" s="12"/>
@@ -1728,8 +1768,10 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="24">
+        <v>45200</v>
+      </c>
       <c r="B29" s="12"/>
       <c r="C29" s="14"/>
       <c r="D29" s="12"/>
@@ -1744,8 +1786,10 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="24">
+        <v>45231</v>
+      </c>
       <c r="B30" s="12"/>
       <c r="C30" s="14"/>
       <c r="D30" s="12"/>
@@ -1760,8 +1804,10 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="24">
+        <v>45261</v>
+      </c>
       <c r="B31" s="12"/>
       <c r="C31" s="14"/>
       <c r="D31" s="12"/>
@@ -1776,8 +1822,10 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="24">
+        <v>45292</v>
+      </c>
       <c r="B32" s="12"/>
       <c r="C32" s="14"/>
       <c r="D32" s="12"/>
@@ -1792,8 +1840,10 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="24">
+        <v>45323</v>
+      </c>
       <c r="B33" s="12"/>
       <c r="C33" s="14"/>
       <c r="D33" s="12"/>
@@ -1808,8 +1858,10 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="24">
+        <v>45352</v>
+      </c>
       <c r="B34" s="12"/>
       <c r="C34" s="14"/>
       <c r="D34" s="12"/>
@@ -1824,8 +1876,10 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="24">
+        <v>45383</v>
+      </c>
       <c r="B35" s="12"/>
       <c r="C35" s="14"/>
       <c r="D35" s="12"/>
@@ -1840,8 +1894,10 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="24">
+        <v>45413</v>
+      </c>
       <c r="B36" s="12"/>
       <c r="C36" s="14"/>
       <c r="D36" s="12"/>
@@ -1856,8 +1912,10 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="24">
+        <v>45444</v>
+      </c>
       <c r="B37" s="12"/>
       <c r="C37" s="14"/>
       <c r="D37" s="12"/>
@@ -1872,8 +1930,10 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="24">
+        <v>45474</v>
+      </c>
       <c r="B38" s="12"/>
       <c r="C38" s="14"/>
       <c r="D38" s="12"/>
@@ -1888,8 +1948,10 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="24">
+        <v>45505</v>
+      </c>
       <c r="B39" s="12"/>
       <c r="C39" s="14"/>
       <c r="D39" s="12"/>
@@ -1904,8 +1966,10 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="24">
+        <v>45536</v>
+      </c>
       <c r="B40" s="12"/>
       <c r="C40" s="14"/>
       <c r="D40" s="12"/>
@@ -1920,8 +1984,10 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="24">
+        <v>45566</v>
+      </c>
       <c r="B41" s="12"/>
       <c r="C41" s="14"/>
       <c r="D41" s="12"/>
@@ -1936,8 +2002,10 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="24">
+        <v>45597</v>
+      </c>
       <c r="B42" s="12"/>
       <c r="C42" s="14"/>
       <c r="D42" s="12"/>
@@ -1952,8 +2020,10 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="24">
+        <v>45627</v>
+      </c>
       <c r="B43" s="12"/>
       <c r="C43" s="14"/>
       <c r="D43" s="12"/>
@@ -1968,8 +2038,10 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="24">
+        <v>45658</v>
+      </c>
       <c r="B44" s="12"/>
       <c r="C44" s="14"/>
       <c r="D44" s="12"/>
@@ -1984,8 +2056,10 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="24">
+        <v>45689</v>
+      </c>
       <c r="B45" s="12"/>
       <c r="C45" s="14"/>
       <c r="D45" s="12"/>
@@ -2000,8 +2074,10 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="24">
+        <v>45717</v>
+      </c>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
       <c r="D46" s="12"/>
@@ -2016,8 +2092,10 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="24">
+        <v>45748</v>
+      </c>
       <c r="B47" s="12"/>
       <c r="C47" s="14"/>
       <c r="D47" s="12"/>
@@ -2032,8 +2110,10 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="24">
+        <v>45778</v>
+      </c>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
       <c r="D48" s="13"/>
@@ -2048,8 +2128,10 @@
       <c r="J48" s="13"/>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="24">
+        <v>45809</v>
+      </c>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
       <c r="D49" s="13"/>
@@ -2064,8 +2146,10 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="24">
+        <v>45839</v>
+      </c>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
       <c r="D50" s="13"/>
@@ -2080,8 +2164,10 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="24">
+        <v>45870</v>
+      </c>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
       <c r="D51" s="13"/>
@@ -2096,8 +2182,10 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="24">
+        <v>45901</v>
+      </c>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
       <c r="D52" s="13"/>
@@ -2112,8 +2200,10 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="24">
+        <v>45931</v>
+      </c>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
       <c r="D53" s="13"/>
@@ -2128,8 +2218,10 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="24">
+        <v>45962</v>
+      </c>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
       <c r="D54" s="13"/>
@@ -2144,8 +2236,10 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="24">
+        <v>45992</v>
+      </c>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
       <c r="D55" s="13"/>
@@ -2160,7 +2254,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -2176,7 +2270,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -2192,7 +2286,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -2208,7 +2302,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -2224,7 +2318,7 @@
       <c r="J59" s="13"/>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
@@ -2240,7 +2334,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14"/>
@@ -2256,7 +2350,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
       <c r="B62" s="12"/>
       <c r="C62" s="14"/>
@@ -2272,7 +2366,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
       <c r="B63" s="12"/>
       <c r="C63" s="14"/>
@@ -2288,7 +2382,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -2319,10 +2413,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2345,28 +2439,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="54" t="s">
         <v>33</v>
       </c>
@@ -2379,7 +2473,7 @@
       <c r="K1" s="55"/>
       <c r="L1" s="55"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -2408,7 +2502,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="D3" s="12"/>
@@ -2428,7 +2522,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -2443,10 +2537,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
@@ -2466,7 +2560,7 @@
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -2492,7 +2586,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -2518,7 +2612,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -2544,7 +2638,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -2570,7 +2664,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -2596,7 +2690,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -2622,7 +2716,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -2648,7 +2742,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -2674,7 +2768,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -2694,7 +2788,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -2714,7 +2808,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -2734,7 +2828,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -2755,7 +2849,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -2776,7 +2870,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -2797,7 +2891,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -2818,7 +2912,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -2839,7 +2933,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -2860,7 +2954,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -2881,7 +2975,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -2902,7 +2996,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -2923,7 +3017,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -2944,7 +3038,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -2965,7 +3059,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -2986,7 +3080,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -3007,7 +3101,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -3028,7 +3122,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -3049,7 +3143,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -3070,7 +3164,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -3091,7 +3185,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -3112,7 +3206,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -3133,7 +3227,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -3154,7 +3248,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -3163,7 +3257,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -3172,7 +3266,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -3181,7 +3275,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -3190,7 +3284,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -3199,7 +3293,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -3208,7 +3302,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -3217,7 +3311,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -3226,7 +3320,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -3235,7 +3329,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -3244,7 +3338,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -3253,7 +3347,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -3262,7 +3356,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -3271,7 +3365,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -3280,7 +3374,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -3289,7 +3383,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -3298,7 +3392,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -3307,7 +3401,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -3316,7 +3410,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -3325,7 +3419,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -3334,7 +3428,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -3343,7 +3437,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -3352,7 +3446,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -3361,7 +3455,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -3370,7 +3464,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -3379,7 +3473,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -3388,7 +3482,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -3397,7 +3491,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -3406,7 +3500,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -3415,7 +3509,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/MANGUINAO, NIÑA FERMA.xlsx
+++ b/MANGUINAO, NIÑA FERMA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60FEBE4-44CE-4788-9230-837A08CE350F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>PERIOD</t>
   </si>
@@ -201,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -864,25 +863,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K64" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K64" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1189,32 +1188,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1235,7 +1234,7 @@
       <c r="J2" s="48"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1257,7 +1256,7 @@
       <c r="J3" s="50"/>
       <c r="K3" s="51"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1279,7 +1278,7 @@
       <c r="J4" s="48"/>
       <c r="K4" s="49"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1287,7 +1286,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1300,7 +1299,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="46" t="s">
@@ -1317,7 +1316,7 @@
       <c r="J7" s="46"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1361,7 +1360,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.25</v>
+        <v>11.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1371,12 +1370,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>3.25</v>
+        <v>7.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>34</v>
       </c>
@@ -1398,7 +1397,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>44743</v>
       </c>
@@ -1418,7 +1417,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <f>EDATE(A11,1)</f>
         <v>44774</v>
@@ -1439,7 +1438,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <f>EDATE(A12,1)</f>
         <v>44805</v>
@@ -1464,7 +1463,7 @@
         <v>44827</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="12"/>
       <c r="C14" s="14">
@@ -1482,7 +1481,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>44835</v>
       </c>
@@ -1508,7 +1507,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>44866</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="12" t="s">
         <v>48</v>
@@ -1556,7 +1555,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>44896</v>
       </c>
@@ -1576,7 +1575,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>47</v>
       </c>
@@ -1594,7 +1593,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>44927</v>
       </c>
@@ -1614,7 +1613,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>44958</v>
       </c>
@@ -1634,7 +1633,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>44986</v>
       </c>
@@ -1660,79 +1659,93 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>45017</v>
       </c>
       <c r="B23" s="12"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D23" s="12"/>
       <c r="E23" s="9"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G23" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="9"/>
       <c r="J23" s="12"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>45047</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D24" s="13"/>
       <c r="E24" s="10"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G24" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="10"/>
       <c r="J24" s="13"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>45078</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="12"/>
       <c r="E25" s="9"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="9"/>
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>45108</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D26" s="12"/>
       <c r="E26" s="9"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H26" s="12"/>
+      <c r="G26" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="40">
+        <v>45132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>45139</v>
       </c>
@@ -1750,7 +1763,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>45170</v>
       </c>
@@ -1768,7 +1781,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>45200</v>
       </c>
@@ -1786,7 +1799,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>45231</v>
       </c>
@@ -1804,7 +1817,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>45261</v>
       </c>
@@ -1822,7 +1835,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>45292</v>
       </c>
@@ -1840,7 +1853,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>45323</v>
       </c>
@@ -1858,7 +1871,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>45352</v>
       </c>
@@ -1876,7 +1889,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>45383</v>
       </c>
@@ -1894,7 +1907,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>45413</v>
       </c>
@@ -1912,7 +1925,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>45444</v>
       </c>
@@ -1930,7 +1943,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>45474</v>
       </c>
@@ -1948,7 +1961,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>45505</v>
       </c>
@@ -1966,7 +1979,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>45536</v>
       </c>
@@ -1984,7 +1997,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>45566</v>
       </c>
@@ -2002,7 +2015,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>45597</v>
       </c>
@@ -2020,7 +2033,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>45627</v>
       </c>
@@ -2038,7 +2051,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>45658</v>
       </c>
@@ -2056,7 +2069,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>45689</v>
       </c>
@@ -2074,7 +2087,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>45717</v>
       </c>
@@ -2092,7 +2105,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>45748</v>
       </c>
@@ -2110,7 +2123,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>45778</v>
       </c>
@@ -2128,7 +2141,7 @@
       <c r="J48" s="13"/>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <v>45809</v>
       </c>
@@ -2146,7 +2159,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>45839</v>
       </c>
@@ -2164,7 +2177,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>45870</v>
       </c>
@@ -2182,7 +2195,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>45901</v>
       </c>
@@ -2200,7 +2213,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>45931</v>
       </c>
@@ -2218,7 +2231,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>45962</v>
       </c>
@@ -2236,7 +2249,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>45992</v>
       </c>
@@ -2254,7 +2267,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -2270,7 +2283,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -2286,7 +2299,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -2302,7 +2315,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -2318,7 +2331,7 @@
       <c r="J59" s="13"/>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
@@ -2334,7 +2347,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14"/>
@@ -2350,7 +2363,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="12"/>
       <c r="C62" s="14"/>
@@ -2366,7 +2379,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="12"/>
       <c r="C63" s="14"/>
@@ -2382,7 +2395,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -2413,10 +2426,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2439,28 +2452,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="54" t="s">
         <v>33</v>
       </c>
@@ -2473,7 +2486,7 @@
       <c r="K1" s="55"/>
       <c r="L1" s="55"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -2502,7 +2515,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="D3" s="12"/>
@@ -2522,7 +2535,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -2537,10 +2550,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
@@ -2560,7 +2573,7 @@
       <c r="K6" s="56"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -2586,7 +2599,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -2612,7 +2625,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -2638,7 +2651,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -2664,7 +2677,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -2690,7 +2703,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -2716,7 +2729,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -2742,7 +2755,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -2768,7 +2781,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -2788,7 +2801,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -2808,7 +2821,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -2828,7 +2841,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -2849,7 +2862,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -2870,7 +2883,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -2891,7 +2904,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -2912,7 +2925,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -2933,7 +2946,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -2954,7 +2967,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -2975,7 +2988,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -2996,7 +3009,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -3017,7 +3030,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -3038,7 +3051,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -3059,7 +3072,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -3080,7 +3093,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -3101,7 +3114,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -3122,7 +3135,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -3143,7 +3156,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -3164,7 +3177,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -3185,7 +3198,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -3206,7 +3219,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -3227,7 +3240,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -3248,7 +3261,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -3257,7 +3270,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -3266,7 +3279,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -3275,7 +3288,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -3284,7 +3297,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -3293,7 +3306,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -3302,7 +3315,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -3311,7 +3324,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -3320,7 +3333,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -3329,7 +3342,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -3338,7 +3351,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -3347,7 +3360,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -3356,7 +3369,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -3365,7 +3378,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -3374,7 +3387,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -3383,7 +3396,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -3392,7 +3405,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -3401,7 +3414,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -3410,7 +3423,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -3419,7 +3432,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -3428,7 +3441,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -3437,7 +3450,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -3446,7 +3459,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -3455,7 +3468,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -3464,7 +3477,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -3473,7 +3486,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -3482,7 +3495,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -3491,7 +3504,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -3500,7 +3513,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -3509,7 +3522,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/MANGUINAO, NIÑA FERMA.xlsx
+++ b/MANGUINAO, NIÑA FERMA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>PERIOD</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>2/26-28/2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1198,7 @@
   <dimension ref="A2:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1363,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1370,7 +1373,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>7.25</v>
+        <v>8.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -1750,13 +1753,15 @@
         <v>45139</v>
       </c>
       <c r="B27" s="12"/>
-      <c r="C27" s="14"/>
+      <c r="C27" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D27" s="12"/>
       <c r="E27" s="9"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G27" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="9"/>
@@ -1767,7 +1772,9 @@
       <c r="A28" s="24">
         <v>45170</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="C28" s="14"/>
       <c r="D28" s="12"/>
       <c r="E28" s="9"/>
@@ -1779,7 +1786,9 @@
       <c r="H28" s="12"/>
       <c r="I28" s="9"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="21"/>
+      <c r="K28" s="40">
+        <v>45194</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
